--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2602,28 +2602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>777.8867863164784</v>
+        <v>826.5839374251703</v>
       </c>
       <c r="AB2" t="n">
-        <v>1064.33901898118</v>
+        <v>1130.968609494775</v>
       </c>
       <c r="AC2" t="n">
-        <v>962.7599968188104</v>
+        <v>1023.030552729006</v>
       </c>
       <c r="AD2" t="n">
-        <v>777886.7863164784</v>
+        <v>826583.9374251703</v>
       </c>
       <c r="AE2" t="n">
-        <v>1064339.01898118</v>
+        <v>1130968.609494775</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.891099833752419e-06</v>
+        <v>3.499029809665681e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.035416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>962759.9968188104</v>
+        <v>1023030.552729006</v>
       </c>
     </row>
     <row r="3">
@@ -2708,28 +2708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>278.442313523493</v>
+        <v>302.7482634048288</v>
       </c>
       <c r="AB3" t="n">
-        <v>380.9770573707551</v>
+        <v>414.2335303012281</v>
       </c>
       <c r="AC3" t="n">
-        <v>344.6171417199478</v>
+        <v>374.6996635496893</v>
       </c>
       <c r="AD3" t="n">
-        <v>278442.313523493</v>
+        <v>302748.2634048288</v>
       </c>
       <c r="AE3" t="n">
-        <v>380977.0573707551</v>
+        <v>414233.5303012282</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.496412074021772e-06</v>
+        <v>6.469277748072004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.345833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>344617.1417199477</v>
+        <v>374699.6635496893</v>
       </c>
     </row>
     <row r="4">
@@ -2814,28 +2814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>211.2612674668749</v>
+        <v>235.6524686942309</v>
       </c>
       <c r="AB4" t="n">
-        <v>289.0569863373792</v>
+        <v>322.4301039204843</v>
       </c>
       <c r="AC4" t="n">
-        <v>261.4697932554531</v>
+        <v>291.657827335902</v>
       </c>
       <c r="AD4" t="n">
-        <v>211261.2674668749</v>
+        <v>235652.4686942309</v>
       </c>
       <c r="AE4" t="n">
-        <v>289056.9863373791</v>
+        <v>322430.1039204843</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.072655562668077e-06</v>
+        <v>7.535479070927781e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.73125</v>
       </c>
       <c r="AH4" t="n">
-        <v>261469.7932554531</v>
+        <v>291657.827335902</v>
       </c>
     </row>
     <row r="5">
@@ -2920,28 +2920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.2060987672668</v>
+        <v>211.4267077940305</v>
       </c>
       <c r="AB5" t="n">
-        <v>256.1436432834473</v>
+        <v>289.2833490917055</v>
       </c>
       <c r="AC5" t="n">
-        <v>231.6976534684109</v>
+        <v>261.6745522662088</v>
       </c>
       <c r="AD5" t="n">
-        <v>187206.0987672668</v>
+        <v>211426.7077940305</v>
       </c>
       <c r="AE5" t="n">
-        <v>256143.6432834473</v>
+        <v>289283.3490917055</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.37755401615435e-06</v>
+        <v>8.099621036691978e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.471874999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>231697.653468411</v>
+        <v>261674.5522662088</v>
       </c>
     </row>
     <row r="6">
@@ -3026,28 +3026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>171.2846827503195</v>
+        <v>195.5052917770834</v>
       </c>
       <c r="AB6" t="n">
-        <v>234.3592594857694</v>
+        <v>267.4989652940277</v>
       </c>
       <c r="AC6" t="n">
-        <v>211.9923406858018</v>
+        <v>241.9692394835997</v>
       </c>
       <c r="AD6" t="n">
-        <v>171284.6827503195</v>
+        <v>195505.2917770834</v>
       </c>
       <c r="AE6" t="n">
-        <v>234359.2594857694</v>
+        <v>267498.9652940277</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.576978028554223e-06</v>
+        <v>8.468607671715736e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.319791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>211992.3406858018</v>
+        <v>241969.2394835997</v>
       </c>
     </row>
     <row r="7">
@@ -3132,28 +3132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>166.2959696748207</v>
+        <v>178.4916597970498</v>
       </c>
       <c r="AB7" t="n">
-        <v>227.5334821693875</v>
+        <v>244.2201634304884</v>
       </c>
       <c r="AC7" t="n">
-        <v>205.8180059764545</v>
+        <v>220.9121337979055</v>
       </c>
       <c r="AD7" t="n">
-        <v>166295.9696748207</v>
+        <v>178491.6597970498</v>
       </c>
       <c r="AE7" t="n">
-        <v>227533.4821693875</v>
+        <v>244220.1634304884</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.635915337266402e-06</v>
+        <v>8.577657123471112e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.278125</v>
       </c>
       <c r="AH7" t="n">
-        <v>205818.0059764545</v>
+        <v>220912.1337979056</v>
       </c>
     </row>
     <row r="8">
@@ -3238,28 +3238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>166.7855406611615</v>
+        <v>178.9812307833906</v>
       </c>
       <c r="AB8" t="n">
-        <v>228.2033347912462</v>
+        <v>244.8900160523471</v>
       </c>
       <c r="AC8" t="n">
-        <v>206.4239288042274</v>
+        <v>221.5180566256784</v>
       </c>
       <c r="AD8" t="n">
-        <v>166785.5406611615</v>
+        <v>178981.2307833906</v>
       </c>
       <c r="AE8" t="n">
-        <v>228203.3347912462</v>
+        <v>244890.0160523471</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.634748261846359e-06</v>
+        <v>8.575497728386846e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.279166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>206423.9288042274</v>
+        <v>221518.0566256784</v>
       </c>
     </row>
   </sheetData>
@@ -3535,28 +3535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>478.427795185792</v>
+        <v>513.633680237923</v>
       </c>
       <c r="AB2" t="n">
-        <v>654.6060161178857</v>
+        <v>702.7762612202425</v>
       </c>
       <c r="AC2" t="n">
-        <v>592.1313366849079</v>
+        <v>635.7042812020593</v>
       </c>
       <c r="AD2" t="n">
-        <v>478427.795185792</v>
+        <v>513633.6802379231</v>
       </c>
       <c r="AE2" t="n">
-        <v>654606.0161178857</v>
+        <v>702776.2612202425</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.48135099382376e-06</v>
+        <v>4.729837947078798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.335416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>592131.3366849079</v>
+        <v>635704.2812020592</v>
       </c>
     </row>
     <row r="3">
@@ -3641,28 +3641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.622406491289</v>
+        <v>247.7428611802969</v>
       </c>
       <c r="AB3" t="n">
-        <v>290.9193567997972</v>
+        <v>338.9727123103832</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.1544216947919</v>
+        <v>306.6216323987709</v>
       </c>
       <c r="AD3" t="n">
-        <v>212622.406491289</v>
+        <v>247742.8611802969</v>
       </c>
       <c r="AE3" t="n">
-        <v>290919.3567997972</v>
+        <v>338972.7123103832</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.954888951717885e-06</v>
+        <v>7.538628709472508e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.975</v>
       </c>
       <c r="AH3" t="n">
-        <v>263154.4216947919</v>
+        <v>306621.6323987709</v>
       </c>
     </row>
     <row r="4">
@@ -3747,28 +3747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>172.8699788678294</v>
+        <v>196.2268109326714</v>
       </c>
       <c r="AB4" t="n">
-        <v>236.5283315720742</v>
+        <v>268.4861796338814</v>
       </c>
       <c r="AC4" t="n">
-        <v>213.9543995765021</v>
+        <v>242.8622354724222</v>
       </c>
       <c r="AD4" t="n">
-        <v>172869.9788678295</v>
+        <v>196226.8109326714</v>
       </c>
       <c r="AE4" t="n">
-        <v>236528.3315720742</v>
+        <v>268486.1796338814</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.493355096101973e-06</v>
+        <v>8.565028283440221e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.498958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>213954.3995765021</v>
+        <v>242862.2354724222</v>
       </c>
     </row>
     <row r="5">
@@ -3853,28 +3853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>155.2388441061038</v>
+        <v>178.5956761709457</v>
       </c>
       <c r="AB5" t="n">
-        <v>212.404635160324</v>
+        <v>244.3624832221313</v>
       </c>
       <c r="AC5" t="n">
-        <v>192.1330348924612</v>
+        <v>221.0408707883812</v>
       </c>
       <c r="AD5" t="n">
-        <v>155238.8441061038</v>
+        <v>178595.6761709457</v>
       </c>
       <c r="AE5" t="n">
-        <v>212404.635160324</v>
+        <v>244362.4832221313</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.736177973432129e-06</v>
+        <v>9.0278861630686e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.31875</v>
       </c>
       <c r="AH5" t="n">
-        <v>192133.0348924612</v>
+        <v>221040.8707883812</v>
       </c>
     </row>
     <row r="6">
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>154.6354455019265</v>
+        <v>177.9922775667684</v>
       </c>
       <c r="AB6" t="n">
-        <v>211.5790385700214</v>
+        <v>243.5368866318287</v>
       </c>
       <c r="AC6" t="n">
-        <v>191.3862320820047</v>
+        <v>220.2940679779247</v>
       </c>
       <c r="AD6" t="n">
-        <v>154635.4455019265</v>
+        <v>177992.2775667684</v>
       </c>
       <c r="AE6" t="n">
-        <v>211579.0385700214</v>
+        <v>243536.8866318287</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.758966198712959e-06</v>
+        <v>9.071324037415327e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.303125</v>
       </c>
       <c r="AH6" t="n">
-        <v>191386.2320820047</v>
+        <v>220294.0679779247</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.0050679406343</v>
+        <v>184.2247137050632</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.3482840634809</v>
+        <v>252.0643807119164</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.368377654684</v>
+        <v>228.0077099914247</v>
       </c>
       <c r="AD2" t="n">
-        <v>153005.0679406343</v>
+        <v>184224.7137050632</v>
       </c>
       <c r="AE2" t="n">
-        <v>209348.2840634809</v>
+        <v>252064.3807119164</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.419142316791023e-06</v>
+        <v>9.411616632253624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.969791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>189368.377654684</v>
+        <v>228007.7099914247</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.1542567459523</v>
+        <v>151.0811417283338</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.0827960802914</v>
+        <v>206.7158833421785</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.0868239632122</v>
+        <v>186.9872095636243</v>
       </c>
       <c r="AD3" t="n">
-        <v>130154.2567459523</v>
+        <v>151081.1417283338</v>
       </c>
       <c r="AE3" t="n">
-        <v>178082.7960802914</v>
+        <v>206715.8833421785</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.890661198241175e-06</v>
+        <v>1.041582845186761e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.586458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>161086.8239632122</v>
+        <v>186987.2095636243</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.5293522480167</v>
+        <v>269.3593995320491</v>
       </c>
       <c r="AB2" t="n">
-        <v>323.6298946841456</v>
+        <v>368.5494137377769</v>
       </c>
       <c r="AC2" t="n">
-        <v>292.7431117529968</v>
+        <v>333.3755749529936</v>
       </c>
       <c r="AD2" t="n">
-        <v>236529.3522480167</v>
+        <v>269359.3995320491</v>
       </c>
       <c r="AE2" t="n">
-        <v>323629.8946841456</v>
+        <v>368549.4137377769</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.614174698575093e-06</v>
+        <v>7.338024172733656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.64375</v>
       </c>
       <c r="AH2" t="n">
-        <v>292743.1117529968</v>
+        <v>333375.5749529936</v>
       </c>
     </row>
     <row r="3">
@@ -4765,28 +4765,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.1988495757618</v>
+        <v>161.97184946757</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.8262511261905</v>
+        <v>221.6170301351101</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.5186229485955</v>
+        <v>200.4662118205341</v>
       </c>
       <c r="AD3" t="n">
-        <v>140198.8495757618</v>
+        <v>161971.84946757</v>
       </c>
       <c r="AE3" t="n">
-        <v>191826.2511261905</v>
+        <v>221617.0301351101</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.84225946844395e-06</v>
+        <v>9.831460843356312e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.465625000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>173518.6229485955</v>
+        <v>200466.2118205341</v>
       </c>
     </row>
     <row r="4">
@@ -4871,28 +4871,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.3233098342492</v>
+        <v>160.0963097260573</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.2600549088805</v>
+        <v>219.0508339178</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.1973408965857</v>
+        <v>198.1449297685244</v>
       </c>
       <c r="AD4" t="n">
-        <v>138323.3098342492</v>
+        <v>160096.3097260573</v>
       </c>
       <c r="AE4" t="n">
-        <v>189260.0549088805</v>
+        <v>219050.8339178</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.891395747443032e-06</v>
+        <v>9.931224477691864e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.43125</v>
       </c>
       <c r="AH4" t="n">
-        <v>171197.3408965857</v>
+        <v>198144.9297685244</v>
       </c>
     </row>
   </sheetData>
@@ -5168,28 +5168,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.5694461802319</v>
+        <v>145.6624227742186</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.809655996709</v>
+        <v>199.3017530121534</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.4123835647976</v>
+        <v>180.2806734264972</v>
       </c>
       <c r="AD2" t="n">
-        <v>125569.4461802319</v>
+        <v>145662.4227742186</v>
       </c>
       <c r="AE2" t="n">
-        <v>171809.655996709</v>
+        <v>199301.7530121534</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.771019482985924e-06</v>
+        <v>1.062412849380406e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.81875</v>
       </c>
       <c r="AH2" t="n">
-        <v>155412.3835647976</v>
+        <v>180280.6734264972</v>
       </c>
     </row>
     <row r="3">
@@ -5274,28 +5274,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.505042141199</v>
+        <v>146.5980187351857</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.0897796660843</v>
+        <v>200.5818766815287</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.570334027833</v>
+        <v>181.4386238895326</v>
       </c>
       <c r="AD3" t="n">
-        <v>126505.042141199</v>
+        <v>146598.0187351857</v>
       </c>
       <c r="AE3" t="n">
-        <v>173089.7796660843</v>
+        <v>200581.8766815287</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.771719071604713e-06</v>
+        <v>1.062568634101163e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.817708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>156570.334027833</v>
+        <v>181438.6238895326</v>
       </c>
     </row>
   </sheetData>
@@ -5571,28 +5571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>532.1535625663379</v>
+        <v>579.5771430221337</v>
       </c>
       <c r="AB2" t="n">
-        <v>728.1159812615242</v>
+        <v>793.003016221855</v>
       </c>
       <c r="AC2" t="n">
-        <v>658.6256139271217</v>
+        <v>717.3199213403637</v>
       </c>
       <c r="AD2" t="n">
-        <v>532153.5625663379</v>
+        <v>579577.1430221336</v>
       </c>
       <c r="AE2" t="n">
-        <v>728115.9812615243</v>
+        <v>793003.016221855</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.326700828630236e-06</v>
+        <v>4.399241394528679e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.695833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>658625.6139271216</v>
+        <v>717319.9213403638</v>
       </c>
     </row>
     <row r="3">
@@ -5677,28 +5677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.7374999877155</v>
+        <v>260.4067092968815</v>
       </c>
       <c r="AB3" t="n">
-        <v>323.9146916044314</v>
+        <v>356.2999479932027</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.0007280549256</v>
+        <v>322.2951810268485</v>
       </c>
       <c r="AD3" t="n">
-        <v>236737.4999877155</v>
+        <v>260406.7092968815</v>
       </c>
       <c r="AE3" t="n">
-        <v>323914.6916044314</v>
+        <v>356299.9479932027</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.838899329516031e-06</v>
+        <v>7.258451379749446e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.058333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>293000.7280549256</v>
+        <v>322295.1810268484</v>
       </c>
     </row>
     <row r="4">
@@ -5783,28 +5783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>182.4291098588978</v>
+        <v>206.1835705140811</v>
       </c>
       <c r="AB4" t="n">
-        <v>249.6075563131432</v>
+        <v>282.1094573543907</v>
       </c>
       <c r="AC4" t="n">
-        <v>225.7853614650949</v>
+        <v>255.1853266876807</v>
       </c>
       <c r="AD4" t="n">
-        <v>182429.1098588977</v>
+        <v>206183.5705140811</v>
       </c>
       <c r="AE4" t="n">
-        <v>249607.5563131432</v>
+        <v>282109.4573543906</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.378959539851171e-06</v>
+        <v>8.279577604319934e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.557291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>225785.3614650949</v>
+        <v>255185.3266876806</v>
       </c>
     </row>
     <row r="5">
@@ -5889,28 +5889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>161.5928704581077</v>
+        <v>185.1767389126989</v>
       </c>
       <c r="AB5" t="n">
-        <v>221.0984943349902</v>
+        <v>253.3669836013908</v>
       </c>
       <c r="AC5" t="n">
-        <v>199.9971643494079</v>
+        <v>229.1859942893427</v>
       </c>
       <c r="AD5" t="n">
-        <v>161592.8704581077</v>
+        <v>185176.7389126989</v>
       </c>
       <c r="AE5" t="n">
-        <v>221098.4943349902</v>
+        <v>253366.9836013908</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.665216876484087e-06</v>
+        <v>8.820822576302183e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.339583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>199997.1643494079</v>
+        <v>229185.9942893427</v>
       </c>
     </row>
     <row r="6">
@@ -5995,28 +5995,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>157.0124119574002</v>
+        <v>168.8897317935429</v>
       </c>
       <c r="AB6" t="n">
-        <v>214.831308938758</v>
+        <v>231.0823819289301</v>
       </c>
       <c r="AC6" t="n">
-        <v>194.3281103313402</v>
+        <v>209.0282037238596</v>
       </c>
       <c r="AD6" t="n">
-        <v>157012.4119574002</v>
+        <v>168889.7317935429</v>
       </c>
       <c r="AE6" t="n">
-        <v>214831.308938758</v>
+        <v>231082.3819289301</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.733266556822633e-06</v>
+        <v>8.949488439547704e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.291666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>194328.1103313402</v>
+        <v>209028.2037238596</v>
       </c>
     </row>
     <row r="7">
@@ -6101,28 +6101,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>157.6224499840982</v>
+        <v>169.4997698202409</v>
       </c>
       <c r="AB7" t="n">
-        <v>215.665989879864</v>
+        <v>231.9170628700361</v>
       </c>
       <c r="AC7" t="n">
-        <v>195.0831304949094</v>
+        <v>209.7832238874289</v>
       </c>
       <c r="AD7" t="n">
-        <v>157622.4499840981</v>
+        <v>169499.7698202409</v>
       </c>
       <c r="AE7" t="n">
-        <v>215665.989879864</v>
+        <v>231917.0628700361</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.73281787761161e-06</v>
+        <v>8.948640093196633e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.291666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>195083.1304949094</v>
+        <v>209783.2238874289</v>
       </c>
     </row>
   </sheetData>
@@ -6398,28 +6398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.1104274168359</v>
+        <v>153.6243540404126</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.4958033261237</v>
+        <v>210.1956186261717</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.9832213947074</v>
+        <v>190.1348437959535</v>
       </c>
       <c r="AD2" t="n">
-        <v>134110.4274168359</v>
+        <v>153624.3540404126</v>
       </c>
       <c r="AE2" t="n">
-        <v>183495.8033261237</v>
+        <v>210195.6186261717</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.640226730718854e-06</v>
+        <v>1.063802950688211e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.017708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>165983.2213947074</v>
+        <v>190134.8437959535</v>
       </c>
     </row>
   </sheetData>
@@ -6695,28 +6695,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>339.5403080276425</v>
+        <v>373.5555878270212</v>
       </c>
       <c r="AB2" t="n">
-        <v>464.5740289046143</v>
+        <v>511.1152353743586</v>
       </c>
       <c r="AC2" t="n">
-        <v>420.2357356197019</v>
+        <v>462.3351146649674</v>
       </c>
       <c r="AD2" t="n">
-        <v>339540.3080276425</v>
+        <v>373555.5878270212</v>
       </c>
       <c r="AE2" t="n">
-        <v>464574.0289046143</v>
+        <v>511115.2353743586</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.998150962409031e-06</v>
+        <v>5.876334452072735e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.402083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>420235.7356197019</v>
+        <v>462335.1146649673</v>
       </c>
     </row>
     <row r="3">
@@ -6801,28 +6801,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.8933000806551</v>
+        <v>197.6838814139688</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.2967289180929</v>
+        <v>270.4798077478044</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.4585849652878</v>
+        <v>244.6655945172276</v>
       </c>
       <c r="AD3" t="n">
-        <v>174893.3000806551</v>
+        <v>197683.8814139688</v>
       </c>
       <c r="AE3" t="n">
-        <v>239296.7289180929</v>
+        <v>270479.8077478044</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.374078660073045e-06</v>
+        <v>8.573133724263981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>216458.5849652878</v>
+        <v>244665.5945172276</v>
       </c>
     </row>
     <row r="4">
@@ -6907,28 +6907,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.9246794191668</v>
+        <v>169.5446685518883</v>
       </c>
       <c r="AB4" t="n">
-        <v>201.0288282406037</v>
+        <v>231.9784952954684</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.8429190191101</v>
+        <v>209.8387932883988</v>
       </c>
       <c r="AD4" t="n">
-        <v>146924.6794191668</v>
+        <v>169544.6685518883</v>
       </c>
       <c r="AE4" t="n">
-        <v>201028.8282406037</v>
+        <v>231978.4952954684</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.816291155513937e-06</v>
+        <v>9.439864103980551e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.3625</v>
       </c>
       <c r="AH4" t="n">
-        <v>181842.9190191101</v>
+        <v>209838.7932883988</v>
       </c>
     </row>
     <row r="5">
@@ -7013,28 +7013,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>146.5521598256237</v>
+        <v>169.1721489583452</v>
       </c>
       <c r="AB5" t="n">
-        <v>200.5191304983137</v>
+        <v>231.4687975531783</v>
       </c>
       <c r="AC5" t="n">
-        <v>181.3818661139788</v>
+        <v>209.3777403832675</v>
       </c>
       <c r="AD5" t="n">
-        <v>146552.1598256237</v>
+        <v>169172.1489583452</v>
       </c>
       <c r="AE5" t="n">
-        <v>200519.1304983137</v>
+        <v>231468.7975531783</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.837126765355386e-06</v>
+        <v>9.480701611323033e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.348958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>181381.8661139788</v>
+        <v>209377.7403832675</v>
       </c>
     </row>
   </sheetData>
@@ -7310,28 +7310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>419.0267341453435</v>
+        <v>465.4395615002186</v>
       </c>
       <c r="AB2" t="n">
-        <v>573.3308638124831</v>
+        <v>636.8349417888545</v>
       </c>
       <c r="AC2" t="n">
-        <v>518.6129708451402</v>
+        <v>576.0563087479798</v>
       </c>
       <c r="AD2" t="n">
-        <v>419026.7341453435</v>
+        <v>465439.5615002186</v>
       </c>
       <c r="AE2" t="n">
-        <v>573330.8638124831</v>
+        <v>636834.9417888545</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.645080821953203e-06</v>
+        <v>5.085705046492578e-06</v>
       </c>
       <c r="AG2" t="n">
         <v>6</v>
       </c>
       <c r="AH2" t="n">
-        <v>518612.9708451402</v>
+        <v>576056.3087479798</v>
       </c>
     </row>
     <row r="3">
@@ -7416,28 +7416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.6073107485866</v>
+        <v>222.8990652805954</v>
       </c>
       <c r="AB3" t="n">
-        <v>273.1115286191406</v>
+        <v>304.9803347295075</v>
       </c>
       <c r="AC3" t="n">
-        <v>247.0461476422477</v>
+        <v>275.8734396256017</v>
       </c>
       <c r="AD3" t="n">
-        <v>199607.3107485866</v>
+        <v>222899.0652805954</v>
       </c>
       <c r="AE3" t="n">
-        <v>273111.5286191406</v>
+        <v>304980.3347295075</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.088129177300555e-06</v>
+        <v>7.860258565694151e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.882291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>247046.1476422477</v>
+        <v>275873.4396256017</v>
       </c>
     </row>
     <row r="4">
@@ -7522,28 +7522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.1312503642552</v>
+        <v>186.2524126956718</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.2033735911115</v>
+        <v>254.8387679266316</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.9011568835424</v>
+        <v>230.5173135842452</v>
       </c>
       <c r="AD4" t="n">
-        <v>163131.2503642552</v>
+        <v>186252.4126956718</v>
       </c>
       <c r="AE4" t="n">
-        <v>223203.3735911115</v>
+        <v>254838.7679266316</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.610685750235672e-06</v>
+        <v>8.864979698597592e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.441666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>201901.1568835424</v>
+        <v>230517.3135842452</v>
       </c>
     </row>
     <row r="5">
@@ -7628,28 +7628,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>151.7260452249115</v>
+        <v>174.8472075563282</v>
       </c>
       <c r="AB5" t="n">
-        <v>207.5982687573301</v>
+        <v>239.2336630928502</v>
       </c>
       <c r="AC5" t="n">
-        <v>187.7853813531898</v>
+        <v>216.4015380538928</v>
       </c>
       <c r="AD5" t="n">
-        <v>151726.0452249115</v>
+        <v>174847.2075563282</v>
       </c>
       <c r="AE5" t="n">
-        <v>207598.2687573301</v>
+        <v>239233.6630928502</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.778117141972025e-06</v>
+        <v>9.18690055138502e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.320833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>187785.3813531898</v>
+        <v>216401.5380538928</v>
       </c>
     </row>
     <row r="6">
@@ -7734,28 +7734,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>151.8029053641315</v>
+        <v>174.9240676955482</v>
       </c>
       <c r="AB6" t="n">
-        <v>207.7034321906409</v>
+        <v>239.3388265261609</v>
       </c>
       <c r="AC6" t="n">
-        <v>187.8805081360233</v>
+        <v>216.4966648367262</v>
       </c>
       <c r="AD6" t="n">
-        <v>151802.9053641315</v>
+        <v>174924.0676955482</v>
       </c>
       <c r="AE6" t="n">
-        <v>207703.4321906409</v>
+        <v>239338.8265261609</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.79106679465409e-06</v>
+        <v>9.211798888497788e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.3125</v>
       </c>
       <c r="AH6" t="n">
-        <v>187880.5081360232</v>
+        <v>216496.6648367262</v>
       </c>
     </row>
   </sheetData>
@@ -8031,28 +8031,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>680.7984574463964</v>
+        <v>729.1698792038746</v>
       </c>
       <c r="AB2" t="n">
-        <v>931.4984841863594</v>
+        <v>997.6823974314592</v>
       </c>
       <c r="AC2" t="n">
-        <v>842.5975762219463</v>
+        <v>902.4649896766393</v>
       </c>
       <c r="AD2" t="n">
-        <v>680798.4574463964</v>
+        <v>729169.8792038746</v>
       </c>
       <c r="AE2" t="n">
-        <v>931498.4841863594</v>
+        <v>997682.3974314592</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.029445783988565e-06</v>
+        <v>3.7807035693648e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.547916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>842597.5762219463</v>
+        <v>902464.9896766393</v>
       </c>
     </row>
     <row r="3">
@@ -8137,28 +8137,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>264.0903384767271</v>
+        <v>288.1907980094456</v>
       </c>
       <c r="AB3" t="n">
-        <v>361.3400519473174</v>
+        <v>394.315363917218</v>
       </c>
       <c r="AC3" t="n">
-        <v>326.8542645334127</v>
+        <v>356.682459010047</v>
       </c>
       <c r="AD3" t="n">
-        <v>264090.3384767271</v>
+        <v>288190.7980094457</v>
       </c>
       <c r="AE3" t="n">
-        <v>361340.0519473174</v>
+        <v>394315.3639172179</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.60435806183202e-06</v>
+        <v>6.714645691522397e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>326854.2645334128</v>
+        <v>356682.459010047</v>
       </c>
     </row>
     <row r="4">
@@ -8243,28 +8243,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>201.9214463511269</v>
+        <v>226.1071572298657</v>
       </c>
       <c r="AB4" t="n">
-        <v>276.2778310429921</v>
+        <v>309.369787665525</v>
       </c>
       <c r="AC4" t="n">
-        <v>249.9102626067012</v>
+        <v>279.8439693340428</v>
       </c>
       <c r="AD4" t="n">
-        <v>201921.4463511269</v>
+        <v>226107.1572298657</v>
       </c>
       <c r="AE4" t="n">
-        <v>276277.8310429921</v>
+        <v>309369.787665525</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.166532631224693e-06</v>
+        <v>7.761934275370063e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.676041666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>249910.2626067012</v>
+        <v>279843.9693340428</v>
       </c>
     </row>
     <row r="5">
@@ -8349,28 +8349,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>178.0705864550479</v>
+        <v>202.0857051331945</v>
       </c>
       <c r="AB5" t="n">
-        <v>243.644032307517</v>
+        <v>276.5025771552029</v>
       </c>
       <c r="AC5" t="n">
-        <v>220.3909878207052</v>
+        <v>250.1135592653958</v>
       </c>
       <c r="AD5" t="n">
-        <v>178070.5864550479</v>
+        <v>202085.7051331945</v>
       </c>
       <c r="AE5" t="n">
-        <v>243644.032307517</v>
+        <v>276502.5771552029</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.480926884261977e-06</v>
+        <v>8.347626923098629e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.41875</v>
       </c>
       <c r="AH5" t="n">
-        <v>220390.9878207052</v>
+        <v>250113.5592653958</v>
       </c>
     </row>
     <row r="6">
@@ -8455,28 +8455,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>164.9808477558777</v>
+        <v>177.0737927037981</v>
       </c>
       <c r="AB6" t="n">
-        <v>225.7340743408062</v>
+        <v>242.280175121621</v>
       </c>
       <c r="AC6" t="n">
-        <v>204.1903311055478</v>
+        <v>219.1572952504451</v>
       </c>
       <c r="AD6" t="n">
-        <v>164980.8477558777</v>
+        <v>177073.7927037981</v>
       </c>
       <c r="AE6" t="n">
-        <v>225734.0743408062</v>
+        <v>242280.175121621</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.642829631031879e-06</v>
+        <v>8.64923946058654e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.298958333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>204190.3311055478</v>
+        <v>219157.2952504451</v>
       </c>
     </row>
     <row r="7">
@@ -8561,28 +8561,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>163.1930557496218</v>
+        <v>175.2860006975422</v>
       </c>
       <c r="AB7" t="n">
-        <v>223.2879384460313</v>
+        <v>239.8340392268461</v>
       </c>
       <c r="AC7" t="n">
-        <v>201.9776509873961</v>
+        <v>216.9446151322935</v>
       </c>
       <c r="AD7" t="n">
-        <v>163193.0557496218</v>
+        <v>175286.0006975422</v>
       </c>
       <c r="AE7" t="n">
-        <v>223287.9384460314</v>
+        <v>239834.0392268461</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.670033998109473e-06</v>
+        <v>8.699919133098132e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.280208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>201977.6509873961</v>
+        <v>216944.6151322935</v>
       </c>
     </row>
   </sheetData>
@@ -8858,28 +8858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>263.3213715372904</v>
+        <v>296.5974811500459</v>
       </c>
       <c r="AB2" t="n">
-        <v>360.2879174563529</v>
+        <v>405.8177586668722</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.9025442815859</v>
+        <v>367.0870813485067</v>
       </c>
       <c r="AD2" t="n">
-        <v>263321.3715372903</v>
+        <v>296597.4811500459</v>
       </c>
       <c r="AE2" t="n">
-        <v>360287.917456353</v>
+        <v>405817.7586668722</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.401901243270969e-06</v>
+        <v>6.819102043986624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.870833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>325902.5442815859</v>
+        <v>367087.0813485067</v>
       </c>
     </row>
     <row r="3">
@@ -8964,28 +8964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.6176916242063</v>
+        <v>172.858658602424</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.081770463736</v>
+        <v>236.5128426855316</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.4136155283172</v>
+        <v>213.9403889275524</v>
       </c>
       <c r="AD3" t="n">
-        <v>150617.6916242063</v>
+        <v>172858.6586024241</v>
       </c>
       <c r="AE3" t="n">
-        <v>206081.770463736</v>
+        <v>236512.8426855316</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.69622730552558e-06</v>
+        <v>9.413575212237428e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.529166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>186413.6155283172</v>
+        <v>213940.3889275524</v>
       </c>
     </row>
     <row r="4">
@@ -9070,28 +9070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>140.7775888431605</v>
+        <v>162.8479636207861</v>
       </c>
       <c r="AB4" t="n">
-        <v>192.6181077240196</v>
+        <v>222.8157681709683</v>
       </c>
       <c r="AC4" t="n">
-        <v>174.2349058641057</v>
+        <v>201.5505439806899</v>
       </c>
       <c r="AD4" t="n">
-        <v>140777.5888431605</v>
+        <v>162847.9636207861</v>
       </c>
       <c r="AE4" t="n">
-        <v>192618.1077240196</v>
+        <v>222815.7681709683</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.876472073044567e-06</v>
+        <v>9.774875371975403e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.397916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>174234.9058641057</v>
+        <v>201550.5439806899</v>
       </c>
     </row>
   </sheetData>
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.5522398101706</v>
+        <v>207.7574864778939</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.2490046121275</v>
+        <v>284.2629586123498</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.8883978562483</v>
+        <v>257.1333008080389</v>
       </c>
       <c r="AD2" t="n">
-        <v>186552.2398101706</v>
+        <v>207757.4864778939</v>
       </c>
       <c r="AE2" t="n">
-        <v>255249.0046121275</v>
+        <v>284262.9586123499</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.120342234705511e-06</v>
+        <v>8.620013632624352e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.189583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>230888.3978562483</v>
+        <v>257133.3008080389</v>
       </c>
     </row>
     <row r="3">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.9635309825496</v>
+        <v>154.2540289962934</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.9265690272342</v>
+        <v>211.0571676801058</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.5637526148693</v>
+        <v>190.9141678173721</v>
       </c>
       <c r="AD3" t="n">
-        <v>132963.5309825496</v>
+        <v>154254.0289962934</v>
       </c>
       <c r="AE3" t="n">
-        <v>181926.5690272342</v>
+        <v>211057.1676801058</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.892077827812958e-06</v>
+        <v>1.023453275614155e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.528125</v>
       </c>
       <c r="AH3" t="n">
-        <v>164563.7526148693</v>
+        <v>190914.1678173721</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.509514413004</v>
+        <v>154.0402848187916</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.6736076438704</v>
+        <v>210.7647134667205</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.2394949144093</v>
+        <v>190.6496250236501</v>
       </c>
       <c r="AD2" t="n">
-        <v>133509.514413004</v>
+        <v>154040.2848187916</v>
       </c>
       <c r="AE2" t="n">
-        <v>182673.6076438704</v>
+        <v>210764.7134667205</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.712637087330463e-06</v>
+        <v>1.024459332353458e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.789583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>165239.4949144093</v>
+        <v>190649.6250236501</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.5179482430927</v>
+        <v>149.0487186488804</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.8439265978436</v>
+        <v>203.9350324206937</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.0616290418956</v>
+        <v>184.4717591511364</v>
       </c>
       <c r="AD3" t="n">
-        <v>128517.9482430927</v>
+        <v>149048.7186488804</v>
       </c>
       <c r="AE3" t="n">
-        <v>175843.9265978436</v>
+        <v>203935.0324206937</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.841205630326274e-06</v>
+        <v>1.052408279254811e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.688541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>159061.6290418956</v>
+        <v>184471.7591511364</v>
       </c>
     </row>
   </sheetData>
@@ -17026,28 +17026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.7747085794513</v>
+        <v>152.7142119155116</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.0364580019445</v>
+        <v>208.9503220182461</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.5677153435725</v>
+        <v>189.0083965485031</v>
       </c>
       <c r="AD2" t="n">
-        <v>133774.7085794513</v>
+        <v>152714.2119155116</v>
       </c>
       <c r="AE2" t="n">
-        <v>183036.4580019444</v>
+        <v>208950.322018246</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.383954087149174e-06</v>
+        <v>1.042735300313146e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.371875</v>
       </c>
       <c r="AH2" t="n">
-        <v>165567.7153435725</v>
+        <v>189008.3965485031</v>
       </c>
     </row>
   </sheetData>
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>375.7584410735402</v>
+        <v>410.3282099770009</v>
       </c>
       <c r="AB2" t="n">
-        <v>514.1292763692721</v>
+        <v>561.4291592935542</v>
       </c>
       <c r="AC2" t="n">
-        <v>465.0614998175594</v>
+        <v>507.8471483013507</v>
       </c>
       <c r="AD2" t="n">
-        <v>375758.4410735401</v>
+        <v>410328.2099770009</v>
       </c>
       <c r="AE2" t="n">
-        <v>514129.2763692721</v>
+        <v>561429.1592935543</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.822586416643359e-06</v>
+        <v>5.477449653608461e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.678125000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>465061.4998175594</v>
+        <v>507847.1483013507</v>
       </c>
     </row>
     <row r="3">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.9831054811551</v>
+        <v>210.029618083462</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.8385340316201</v>
+        <v>287.3717893144586</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.4216634153545</v>
+        <v>259.9454290712106</v>
       </c>
       <c r="AD3" t="n">
-        <v>186983.1054811552</v>
+        <v>210029.618083462</v>
       </c>
       <c r="AE3" t="n">
-        <v>255838.5340316201</v>
+        <v>287371.7893144586</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.230494490797673e-06</v>
+        <v>8.209605362860391e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.788541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>231421.6634153545</v>
+        <v>259945.4290712106</v>
       </c>
     </row>
     <row r="4">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>153.4708213320327</v>
+        <v>176.3467417337474</v>
       </c>
       <c r="AB4" t="n">
-        <v>209.9855484011814</v>
+        <v>241.2853919091731</v>
       </c>
       <c r="AC4" t="n">
-        <v>189.9448223784008</v>
+        <v>218.2574527516059</v>
       </c>
       <c r="AD4" t="n">
-        <v>153470.8213320327</v>
+        <v>176346.7417337474</v>
       </c>
       <c r="AE4" t="n">
-        <v>209985.5484011814</v>
+        <v>241285.391909173</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.738880094842029e-06</v>
+        <v>9.196167380714859e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.382291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>189944.8223784008</v>
+        <v>218257.4527516059</v>
       </c>
     </row>
     <row r="5">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>149.0460427148618</v>
+        <v>171.9219631165765</v>
       </c>
       <c r="AB5" t="n">
-        <v>203.9313710897157</v>
+        <v>235.2312145977073</v>
       </c>
       <c r="AC5" t="n">
-        <v>184.4684472524482</v>
+        <v>212.7810776256533</v>
       </c>
       <c r="AD5" t="n">
-        <v>149046.0427148618</v>
+        <v>171921.9631165765</v>
       </c>
       <c r="AE5" t="n">
-        <v>203931.3710897157</v>
+        <v>235231.2145977073</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.811198870235747e-06</v>
+        <v>9.33650761933217e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.33125</v>
       </c>
       <c r="AH5" t="n">
-        <v>184468.4472524482</v>
+        <v>212781.0776256533</v>
       </c>
     </row>
   </sheetData>
@@ -17938,28 +17938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>606.2343379802419</v>
+        <v>642.1949196011664</v>
       </c>
       <c r="AB2" t="n">
-        <v>829.4765663959801</v>
+        <v>878.6794206386226</v>
       </c>
       <c r="AC2" t="n">
-        <v>750.3124870768196</v>
+        <v>794.8194899671842</v>
       </c>
       <c r="AD2" t="n">
-        <v>606234.3379802419</v>
+        <v>642194.9196011664</v>
       </c>
       <c r="AE2" t="n">
-        <v>829476.5663959801</v>
+        <v>878679.4206386226</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.17725208161853e-06</v>
+        <v>4.08537888705496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>750312.4870768196</v>
+        <v>794819.4899671841</v>
       </c>
     </row>
     <row r="3">
@@ -18044,28 +18044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.6584564954854</v>
+        <v>273.5468665577168</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.5937143307236</v>
+        <v>374.2788908603026</v>
       </c>
       <c r="AC3" t="n">
-        <v>308.9924896648903</v>
+        <v>338.5582388203171</v>
       </c>
       <c r="AD3" t="n">
-        <v>249658.4564954854</v>
+        <v>273546.8665577169</v>
       </c>
       <c r="AE3" t="n">
-        <v>341593.7143307236</v>
+        <v>374278.8908603026</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.724637175855181e-06</v>
+        <v>6.988880253529052e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.146875000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>308992.4896648903</v>
+        <v>338558.2388203171</v>
       </c>
     </row>
     <row r="4">
@@ -18150,28 +18150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.8973759188137</v>
+        <v>215.8710373270623</v>
       </c>
       <c r="AB4" t="n">
-        <v>262.5624556467317</v>
+        <v>295.3642768287776</v>
       </c>
       <c r="AC4" t="n">
-        <v>237.5038633886052</v>
+        <v>267.1751247946923</v>
       </c>
       <c r="AD4" t="n">
-        <v>191897.3759188137</v>
+        <v>215871.0373270623</v>
       </c>
       <c r="AE4" t="n">
-        <v>262562.4556467317</v>
+        <v>295364.2768287776</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.276067337360174e-06</v>
+        <v>8.023579523547944e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.6125</v>
       </c>
       <c r="AH4" t="n">
-        <v>237503.8633886052</v>
+        <v>267175.1247946923</v>
       </c>
     </row>
     <row r="5">
@@ -18256,28 +18256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>169.9089963399404</v>
+        <v>193.7120655475968</v>
       </c>
       <c r="AB5" t="n">
-        <v>232.4769846480886</v>
+        <v>265.0453940552877</v>
       </c>
       <c r="AC5" t="n">
-        <v>210.2897075168393</v>
+        <v>239.7498336402753</v>
       </c>
       <c r="AD5" t="n">
-        <v>169908.9963399403</v>
+        <v>193712.0655475968</v>
       </c>
       <c r="AE5" t="n">
-        <v>232476.9846480886</v>
+        <v>265045.3940552876</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.573949347164833e-06</v>
+        <v>8.582523011977077e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.377083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>210289.7075168393</v>
+        <v>239749.8336402753</v>
       </c>
     </row>
     <row r="6">
@@ -18362,28 +18362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>160.1647554334884</v>
+        <v>172.1516756461638</v>
       </c>
       <c r="AB6" t="n">
-        <v>219.1444843543187</v>
+        <v>235.54551741489</v>
       </c>
       <c r="AC6" t="n">
-        <v>198.2296423388209</v>
+        <v>213.065383823091</v>
       </c>
       <c r="AD6" t="n">
-        <v>160164.7554334884</v>
+        <v>172151.6756461638</v>
       </c>
       <c r="AE6" t="n">
-        <v>219144.4843543187</v>
+        <v>235545.51741489</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.699982054150379e-06</v>
+        <v>8.819009803995377e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.286458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>198229.6423388209</v>
+        <v>213065.383823091</v>
       </c>
     </row>
     <row r="7">
@@ -18468,28 +18468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>160.5822847171922</v>
+        <v>172.5692049298676</v>
       </c>
       <c r="AB7" t="n">
-        <v>219.7157663403739</v>
+        <v>236.1167994009453</v>
       </c>
       <c r="AC7" t="n">
-        <v>198.7464019739265</v>
+        <v>213.5821434581966</v>
       </c>
       <c r="AD7" t="n">
-        <v>160582.2847171922</v>
+        <v>172569.2049298676</v>
       </c>
       <c r="AE7" t="n">
-        <v>219715.7663403739</v>
+        <v>236116.7994009453</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.699982054150379e-06</v>
+        <v>8.819009803995377e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.286458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>198746.4019739265</v>
+        <v>213582.1434581966</v>
       </c>
     </row>
   </sheetData>
@@ -18765,28 +18765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.8408157751747</v>
+        <v>164.1612912101922</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.5458381862051</v>
+        <v>224.612720918717</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.5014634541133</v>
+        <v>203.175998080233</v>
       </c>
       <c r="AD2" t="n">
-        <v>145840.8157751747</v>
+        <v>164161.2912101923</v>
       </c>
       <c r="AE2" t="n">
-        <v>199545.8381862051</v>
+        <v>224612.720918717</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.866094990252626e-06</v>
+        <v>9.668810174483631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.133333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>180501.4634541133</v>
+        <v>203175.998080233</v>
       </c>
     </row>
   </sheetData>
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.2943330826624</v>
+        <v>231.8369756853274</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.7339840547659</v>
+        <v>317.2095780580335</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.2730564538467</v>
+        <v>286.9355411347078</v>
       </c>
       <c r="AD2" t="n">
-        <v>210294.3330826624</v>
+        <v>231836.9756853274</v>
       </c>
       <c r="AE2" t="n">
-        <v>287733.9840547659</v>
+        <v>317209.5780580335</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.85958946505691e-06</v>
+        <v>7.947988740522696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.407291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>260273.0564538467</v>
+        <v>286935.5411347078</v>
       </c>
     </row>
     <row r="3">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.4890247513413</v>
+        <v>156.9463264994347</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.382061018615</v>
+        <v>214.740887899685</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.6894573004072</v>
+        <v>194.2463189493295</v>
       </c>
       <c r="AD3" t="n">
-        <v>135489.0247513413</v>
+        <v>156946.3264994347</v>
       </c>
       <c r="AE3" t="n">
-        <v>185382.061018615</v>
+        <v>214740.887899685</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.894746546461426e-06</v>
+        <v>1.007967059481393e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.475</v>
       </c>
       <c r="AH3" t="n">
-        <v>167689.4573004072</v>
+        <v>194246.3189493296</v>
       </c>
     </row>
     <row r="4">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>135.679442156802</v>
+        <v>157.1367439048953</v>
       </c>
       <c r="AB4" t="n">
-        <v>185.6425985133891</v>
+        <v>215.0014253944591</v>
       </c>
       <c r="AC4" t="n">
-        <v>167.9251294623469</v>
+        <v>194.4819911112692</v>
       </c>
       <c r="AD4" t="n">
-        <v>135679.442156802</v>
+        <v>157136.7439048953</v>
       </c>
       <c r="AE4" t="n">
-        <v>185642.5985133891</v>
+        <v>215001.4253944591</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.906014228843019e-06</v>
+        <v>1.010287394675369e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.467708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>167925.1294623469</v>
+        <v>194481.9911112692</v>
       </c>
     </row>
   </sheetData>
@@ -19571,28 +19571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.7500724503596</v>
+        <v>328.2727766164577</v>
       </c>
       <c r="AB2" t="n">
-        <v>418.340737867792</v>
+        <v>449.1572953394282</v>
       </c>
       <c r="AC2" t="n">
-        <v>378.4148849906023</v>
+        <v>406.2903534684557</v>
       </c>
       <c r="AD2" t="n">
-        <v>305750.0724503596</v>
+        <v>328272.7766164577</v>
       </c>
       <c r="AE2" t="n">
-        <v>418340.737867792</v>
+        <v>449157.2953394282</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.190833716796379e-06</v>
+        <v>6.321629063057931e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.132291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>378414.8849906023</v>
+        <v>406290.3534684557</v>
       </c>
     </row>
     <row r="3">
@@ -19677,28 +19677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.0218059607832</v>
+        <v>185.54442061833</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.053626929935</v>
+        <v>253.870061932007</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.7657018335377</v>
+        <v>229.6410595301599</v>
       </c>
       <c r="AD3" t="n">
-        <v>163021.8059607832</v>
+        <v>185544.42061833</v>
       </c>
       <c r="AE3" t="n">
-        <v>223053.626929935</v>
+        <v>253870.061932007</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.523452912833141e-06</v>
+        <v>8.96179304130277e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.620833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>201765.7018335377</v>
+        <v>229641.0595301599</v>
       </c>
     </row>
     <row r="4">
@@ -19783,28 +19783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.5042746060222</v>
+        <v>165.8562970629768</v>
       </c>
       <c r="AB4" t="n">
-        <v>196.3488794776511</v>
+        <v>226.9319027048763</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.6096179977428</v>
+        <v>205.273840411714</v>
       </c>
       <c r="AD4" t="n">
-        <v>143504.2746060222</v>
+        <v>165856.2970629768</v>
       </c>
       <c r="AE4" t="n">
-        <v>196348.8794776511</v>
+        <v>226931.9027048763</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.858337161011328e-06</v>
+        <v>9.62526039307973e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.370833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>177609.6179977428</v>
+        <v>205273.840411714</v>
       </c>
     </row>
     <row r="5">
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>144.0804111930884</v>
+        <v>166.432433650043</v>
       </c>
       <c r="AB5" t="n">
-        <v>197.1371749734269</v>
+        <v>227.7201982006521</v>
       </c>
       <c r="AC5" t="n">
-        <v>178.3226796777818</v>
+        <v>205.986902091753</v>
       </c>
       <c r="AD5" t="n">
-        <v>144080.4111930884</v>
+        <v>166432.433650043</v>
       </c>
       <c r="AE5" t="n">
-        <v>197137.1749734269</v>
+        <v>227720.1982006521</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.85770827040442e-06</v>
+        <v>9.624014445001276e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.371875</v>
       </c>
       <c r="AH5" t="n">
-        <v>178322.6796777818</v>
+        <v>205986.902091753</v>
       </c>
     </row>
   </sheetData>
